--- a/CPC薬剤投与.xlsx
+++ b/CPC薬剤投与.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>ABPC/SBT</t>
     <phoneticPr fontId="1"/>
@@ -99,210 +99,231 @@
                   label: 'ABPC/SBT'</t>
   </si>
   <si>
+    <t>name:'VCM',
+              intervals: [{
+                  from: 167,
+                  to: 167,
+                  label: 'VCM'</t>
+  </si>
+  <si>
+    <t>name:'VCM',
+              intervals: [{
+                  from: 176,
+                  to: 176,
+                  label: 'VCM'</t>
+  </si>
+  <si>
+    <t>name:'VCM',
+              intervals: [{
+                  from: 183,
+                  to: 183,
+                  label: 'VCM'</t>
+  </si>
+  <si>
+    <t>name:'VCM',
+              intervals: [{
+                  from: 190,
+                  to: 190,
+                  label: 'VCM'</t>
+  </si>
+  <si>
+    <t>name:'グラン',
+              intervals: [{
+                  from: 46,
+                  to: 47,
+                  label: 'グラン'</t>
+  </si>
+  <si>
+    <t>name:'ヘパリン',
+              intervals: [{
+                  from: -8,
+                  to: 0,
+                  label: 'ヘパリン'</t>
+  </si>
+  <si>
+    <t>name:'ヘパリン 5000',
+              intervals: [{
+                  from: 140,
+                  to: 157,
+                  label: 'ヘパリン 5000'</t>
+  </si>
+  <si>
+    <t>name:'フィブロガミンP',
+              intervals: [{
+                  from: 181,
+                  to: 185,
+                  label: 'フィブロガミンP'</t>
+  </si>
+  <si>
+    <t>name:'PIPC/TAZ',
+              intervals: [{
+                  from: -4,
+                  to: 0,
+                  label: 'PIPC/TAZ'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name:'PIPC/TAZ',
+              intervals: [{
+                  from: 11,
+                  to: 13,
+                  label: 'PIPC/TAZ'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name:'LVFX',
+              intervals: [{
+                  from: 74,
+                  to: 86,
+                  label: 'LVFX'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name:'PIPC/TAZ',
+              intervals: [{
+                  from: 62,
+                  to: 73,
+                  label: 'PIPC/TAZ'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name:'LVFX',
+              intervals: [{
+                  from: 13,
+                  to: 23,
+                  label: 'LVFX'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name:'LVFX',
+              intervals: [{
+                  from: 98,
+                  to: 100,
+                  label: 'LVFX'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name:'GCV',
+              intervals: [{
+                  from: 190,
+                  to: 193,
+                  label: 'GCV'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name:'CLDM',
+              intervals: [{
+                  from: 17,
+                  to: 25,
+                  label: 'CLDM'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name:'MEPM',
+              intervals: [{
+                  from: 25,
+                  to: 43,
+                  label: 'MEPM'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name:'MEPM',
+              intervals: [{
+                  from: 102,
+                  to: 115,
+                  label: 'MEPM'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name:'VCM',
+              intervals: [{
+                  from: 40,
+                  to: 40,
+                  label: 'VCM'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name:'VCM',
+              intervals: [{
+                  from: 64,
+                  to: 64,
+                  label: 'VCM'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name:'VCM',
+              intervals: [{
+                  from: 144,
+                  to: 159,
+                  label: 'VCM'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name:'DLPM',
+              intervals: [{
+                  from: 141,
+                  to: 185,
+                  label: 'DLPM'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name:'SBT/CPZ',
+              intervals: [{
+                  from: 137,
+                  to: 141,
+                  label: 'SBT/CPZ'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name:'L-AMB',
+              intervals: [{
+                  from: 183,
+                  to: 192,
+                  label: 'L-AMB'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name:'MCFG',
+              intervals: [{
+                  from: 130,
+                  to: 162,
+                  label: 'MCFG'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name:'MCFG',
+              intervals: [{
+                  from: 176,
+                  to: 182,
+                  label: 'MCFG'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>name:'CAZ',
               intervals: [{
                   from: 190,
                   to: 192,
                   label: 'CAZ'</t>
-  </si>
-  <si>
-    <t>name:'VCM',
-              intervals: [{
-                  from: 167,
-                  to: 167,
-                  label: 'VCM'</t>
-  </si>
-  <si>
-    <t>name:'VCM',
-              intervals: [{
-                  from: 176,
-                  to: 176,
-                  label: 'VCM'</t>
-  </si>
-  <si>
-    <t>name:'VCM',
-              intervals: [{
-                  from: 183,
-                  to: 183,
-                  label: 'VCM'</t>
-  </si>
-  <si>
-    <t>name:'VCM',
-              intervals: [{
-                  from: 190,
-                  to: 190,
-                  label: 'VCM'</t>
-  </si>
-  <si>
-    <t>name:'グラン',
-              intervals: [{
-                  from: 46,
-                  to: 47,
-                  label: 'グラン'</t>
-  </si>
-  <si>
-    <t>name:'ヘパリン',
-              intervals: [{
-                  from: -8,
-                  to: 0,
-                  label: 'ヘパリン'</t>
-  </si>
-  <si>
-    <t>name:'ヘパリン 5000',
-              intervals: [{
-                  from: 140,
-                  to: 157,
-                  label: 'ヘパリン 5000'</t>
-  </si>
-  <si>
-    <t>name:'フィブロガミンP',
-              intervals: [{
-                  from: 181,
-                  to: 185,
-                  label: 'フィブロガミンP'</t>
-  </si>
-  <si>
-    <t>name:'PIPC/TAZ',
-              intervals: [{
-                  from: -4,
-                  to: 0,
-                  label: 'PIPC/TAZ'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name:'PIPC/TAZ',
-              intervals: [{
-                  from: 11,
-                  to: 13,
-                  label: 'PIPC/TAZ'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name:'LVFX',
-              intervals: [{
-                  from: 74,
-                  to: 86,
-                  label: 'LVFX'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name:'PIPC/TAZ',
-              intervals: [{
-                  from: 62,
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MNZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name:'MNZ',
+              intervals: [{
+                  from: 70,
                   to: 73,
-                  label: 'PIPC/TAZ'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name:'LVFX',
-              intervals: [{
-                  from: 13,
-                  to: 23,
-                  label: 'LVFX'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name:'LVFX',
-              intervals: [{
-                  from: 98,
-                  to: 100,
-                  label: 'LVFX'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name:'GCV',
-              intervals: [{
-                  from: 190,
-                  to: 193,
-                  label: 'GCV'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name:'CLDM',
-              intervals: [{
-                  from: 17,
-                  to: 25,
-                  label: 'CLDM'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name:'MEPM',
-              intervals: [{
-                  from: 25,
-                  to: 43,
-                  label: 'MEPM'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name:'MEPM',
-              intervals: [{
-                  from: 102,
-                  to: 115,
-                  label: 'MEPM'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name:'VCM',
-              intervals: [{
-                  from: 40,
-                  to: 40,
-                  label: 'VCM'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name:'VCM',
-              intervals: [{
-                  from: 64,
-                  to: 64,
-                  label: 'VCM'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name:'VCM',
-              intervals: [{
-                  from: 144,
-                  to: 159,
-                  label: 'VCM'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name:'DLPM',
-              intervals: [{
-                  from: 141,
-                  to: 185,
-                  label: 'DLPM'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name:'SBT/CPZ',
-              intervals: [{
-                  from: 137,
-                  to: 141,
-                  label: 'SBT/CPZ'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name:'L-AMB',
-              intervals: [{
-                  from: 183,
-                  to: 192,
-                  label: 'L-AMB'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name:'MCFG',
-              intervals: [{
-                  from: 130,
-                  to: 162,
-                  label: 'MCFG'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name:'MCFG',
-              intervals: [{
-                  from: 176,
-                  to: 182,
-                  label: 'MCFG'</t>
+                  label: 'MNZ'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name:'MNZ',
+              intervals: [{
+                  from: 88,
+                  to: 111,
+                  label: 'MNZ'</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -362,8 +383,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -419,7 +444,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="51">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -443,6 +468,8 @@
     <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -467,6 +494,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -795,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -863,15 +892,15 @@
         <v>ABPC/SBT</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G29" si="1">B2-$E$1</f>
+        <f t="shared" ref="G2:G31" si="1">B2-$E$1</f>
         <v>60</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H29" si="2">C2-$E$1</f>
+        <f t="shared" ref="H2:H31" si="2">C2-$E$1</f>
         <v>61</v>
       </c>
       <c r="J2" s="2" t="str">
-        <f t="shared" ref="J2:J29" si="3" xml:space="preserve"> "name:'"&amp;F2&amp;"',
+        <f t="shared" ref="J2:J30" si="3" xml:space="preserve"> "name:'"&amp;F2&amp;"',
               intervals: [{
                   from: "&amp;G2&amp;",
                   to: "&amp;H2&amp;",
@@ -909,7 +938,7 @@
         <v>name:'PIPC/TAZ',_x000D_              intervals: [{_x000D_                  from: -4,_x000D_                  to: 0,_x000D_                  label: 'PIPC/TAZ'</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="29" customHeight="1">
@@ -939,7 +968,7 @@
         <v>name:'PIPC/TAZ',_x000D_              intervals: [{_x000D_                  from: 11,_x000D_                  to: 13,_x000D_                  label: 'PIPC/TAZ'</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="27" customHeight="1">
@@ -969,10 +998,10 @@
         <v>name:'PIPC/TAZ',_x000D_              intervals: [{_x000D_                  from: 62,_x000D_                  to: 73,_x000D_                  label: 'PIPC/TAZ'</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="70">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -998,8 +1027,8 @@
         <f t="shared" si="3"/>
         <v>name:'CAZ',_x000D_              intervals: [{_x000D_                  from: 190,_x000D_                  to: 192,_x000D_                  label: 'CAZ'</v>
       </c>
-      <c r="K6" t="s">
-        <v>18</v>
+      <c r="K6" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="70">
@@ -1029,7 +1058,7 @@
         <v>name:'LVFX',_x000D_              intervals: [{_x000D_                  from: 13,_x000D_                  to: 23,_x000D_                  label: 'LVFX'</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="70">
@@ -1059,7 +1088,7 @@
         <v>name:'LVFX',_x000D_              intervals: [{_x000D_                  from: 74,_x000D_                  to: 86,_x000D_                  label: 'LVFX'</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="70">
@@ -1089,7 +1118,7 @@
         <v>name:'LVFX',_x000D_              intervals: [{_x000D_                  from: 98,_x000D_                  to: 100,_x000D_                  label: 'LVFX'</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="70">
@@ -1119,7 +1148,7 @@
         <v>name:'GCV',_x000D_              intervals: [{_x000D_                  from: 190,_x000D_                  to: 193,_x000D_                  label: 'GCV'</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="70">
@@ -1149,7 +1178,7 @@
         <v>name:'CLDM',_x000D_              intervals: [{_x000D_                  from: 17,_x000D_                  to: 25,_x000D_                  label: 'CLDM'</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="70">
@@ -1179,7 +1208,7 @@
         <v>name:'MEPM',_x000D_              intervals: [{_x000D_                  from: 25,_x000D_                  to: 43,_x000D_                  label: 'MEPM'</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="70">
@@ -1209,7 +1238,7 @@
         <v>name:'MEPM',_x000D_              intervals: [{_x000D_                  from: 102,_x000D_                  to: 115,_x000D_                  label: 'MEPM'</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="70">
@@ -1239,7 +1268,7 @@
         <v>name:'VCM',_x000D_              intervals: [{_x000D_                  from: 40,_x000D_                  to: 40,_x000D_                  label: 'VCM'</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="70">
@@ -1269,7 +1298,7 @@
         <v>name:'VCM',_x000D_              intervals: [{_x000D_                  from: 64,_x000D_                  to: 64,_x000D_                  label: 'VCM'</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="70">
@@ -1299,7 +1328,7 @@
         <v>name:'VCM',_x000D_              intervals: [{_x000D_                  from: 144,_x000D_                  to: 159,_x000D_                  label: 'VCM'</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1329,7 +1358,7 @@
         <v>name:'VCM',_x000D_              intervals: [{_x000D_                  from: 167,_x000D_                  to: 167,_x000D_                  label: 'VCM'</v>
       </c>
       <c r="K17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1359,7 +1388,7 @@
         <v>name:'VCM',_x000D_              intervals: [{_x000D_                  from: 176,_x000D_                  to: 176,_x000D_                  label: 'VCM'</v>
       </c>
       <c r="K18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1389,7 +1418,7 @@
         <v>name:'VCM',_x000D_              intervals: [{_x000D_                  from: 183,_x000D_                  to: 183,_x000D_                  label: 'VCM'</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1419,7 +1448,7 @@
         <v>name:'VCM',_x000D_              intervals: [{_x000D_                  from: 190,_x000D_                  to: 190,_x000D_                  label: 'VCM'</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="70">
@@ -1449,7 +1478,7 @@
         <v>name:'DLPM',_x000D_              intervals: [{_x000D_                  from: 141,_x000D_                  to: 185,_x000D_                  label: 'DLPM'</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="70">
@@ -1479,7 +1508,7 @@
         <v>name:'SBT/CPZ',_x000D_              intervals: [{_x000D_                  from: 137,_x000D_                  to: 141,_x000D_                  label: 'SBT/CPZ'</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="70">
@@ -1509,7 +1538,7 @@
         <v>name:'L-AMB',_x000D_              intervals: [{_x000D_                  from: 183,_x000D_                  to: 192,_x000D_                  label: 'L-AMB'</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="70">
@@ -1539,7 +1568,7 @@
         <v>name:'MCFG',_x000D_              intervals: [{_x000D_                  from: 130,_x000D_                  to: 162,_x000D_                  label: 'MCFG'</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="70">
@@ -1569,7 +1598,7 @@
         <v>name:'MCFG',_x000D_              intervals: [{_x000D_                  from: 176,_x000D_                  to: 182,_x000D_                  label: 'MCFG'</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1583,7 +1612,7 @@
         <v>42444</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f t="shared" ref="F2:F29" si="4">A26</f>
+        <f t="shared" ref="F26:F30" si="4">A26</f>
         <v>グラン</v>
       </c>
       <c r="G26">
@@ -1599,7 +1628,7 @@
         <v>name:'グラン',_x000D_              intervals: [{_x000D_                  from: 46,_x000D_                  to: 47,_x000D_                  label: 'グラン'</v>
       </c>
       <c r="K26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1629,7 +1658,7 @@
         <v>name:'ヘパリン',_x000D_              intervals: [{_x000D_                  from: -8,_x000D_                  to: 0,_x000D_                  label: 'ヘパリン'</v>
       </c>
       <c r="K27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1659,7 +1688,7 @@
         <v>name:'ヘパリン 5000',_x000D_              intervals: [{_x000D_                  from: 140,_x000D_                  to: 157,_x000D_                  label: 'ヘパリン 5000'</v>
       </c>
       <c r="K28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1689,7 +1718,79 @@
         <v>name:'フィブロガミンP',_x000D_              intervals: [{_x000D_                  from: 181,_x000D_                  to: 185,_x000D_                  label: 'フィブロガミンP'</v>
       </c>
       <c r="K29" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1">
+        <v>42467</v>
+      </c>
+      <c r="C30" s="1">
+        <v>42470</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>MNZ</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="J30" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>name:'MNZ',
+              intervals: [{
+                  from: 70,
+                  to: 73,
+                  label: 'MNZ'</v>
+      </c>
+      <c r="K30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="1">
+        <v>42485</v>
+      </c>
+      <c r="C31" s="1">
+        <v>42508</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" ref="F31" si="5">A31</f>
+        <v>MNZ</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31" si="6">B31-$E$1</f>
+        <v>88</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31" si="7">C31-$E$1</f>
+        <v>111</v>
+      </c>
+      <c r="J31" s="2" t="str">
+        <f t="shared" ref="J31" si="8" xml:space="preserve"> "name:'"&amp;F31&amp;"',
+              intervals: [{
+                  from: "&amp;G31&amp;",
+                  to: "&amp;H31&amp;",
+                  label: '"&amp;F31&amp;"'"</f>
+        <v>name:'MNZ',
+              intervals: [{
+                  from: 88,
+                  to: 111,
+                  label: 'MNZ'</v>
+      </c>
+      <c r="K31" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
